--- a/Tables/num_pawns_bal.xlsx
+++ b/Tables/num_pawns_bal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980805F-3910-4A5E-BF8E-893DDEFB54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8763062-35EF-4FA1-B61A-E03A9522A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16005" yWindow="-5730" windowWidth="14400" windowHeight="9690" xr2:uid="{94F89B6B-64DA-4D6C-BCA3-70B6D91F8434}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{94F89B6B-64DA-4D6C-BCA3-70B6D91F8434}"/>
   </bookViews>
   <sheets>
     <sheet name="num_pawns_bal" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -176,6 +173,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -196,8 +196,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="num_pawns_bal"/>
     </sheetNames>
@@ -222,16 +225,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>2.48</v>
+            <v>2.40</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-3.32</v>
+            <v>-3.44</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.65</v>
+            <v>-0.61</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.65</v>
+            <v>-0.61</v>
           </cell>
         </row>
         <row r="6">
@@ -239,30 +242,30 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.36)</v>
+            <v>(1.37)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(1.85)</v>
+            <v>(1.87)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(2.80)</v>
+            <v>(2.76)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(2.80)</v>
+            <v>(2.76)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>0.20</v>
+            <v>-0.55</v>
           </cell>
           <cell r="C8" t="str">
-            <v>1.82</v>
+            <v>1.50</v>
           </cell>
           <cell r="D8" t="str">
-            <v>1.32</v>
+            <v>1.20</v>
           </cell>
           <cell r="E8" t="str">
-            <v>1.32</v>
+            <v>1.20</v>
           </cell>
         </row>
         <row r="9">
@@ -270,30 +273,30 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.97)</v>
+            <v>(1.24)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.93)</v>
+            <v>(1.00)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.67)</v>
+            <v>(0.73)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.67)</v>
+            <v>(0.73)</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>628</v>
+            <v>632</v>
           </cell>
           <cell r="C41" t="str">
-            <v>628</v>
+            <v>632</v>
           </cell>
           <cell r="D41" t="str">
-            <v>628</v>
+            <v>632</v>
           </cell>
           <cell r="E41" t="str">
-            <v>628</v>
+            <v>632</v>
           </cell>
         </row>
         <row r="42">
@@ -301,16 +304,16 @@
             <v>R-sq</v>
           </cell>
           <cell r="B42" t="str">
-            <v>0.737</v>
+            <v>0.738</v>
           </cell>
           <cell r="C42" t="str">
             <v>0.747</v>
           </cell>
           <cell r="D42" t="str">
-            <v>0.747</v>
+            <v>0.748</v>
           </cell>
           <cell r="E42" t="str">
-            <v>0.747</v>
+            <v>0.748</v>
           </cell>
         </row>
       </sheetData>
@@ -624,52 +627,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f>[1]num_pawns_bal!A2</f>
         <v/>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="8" t="str">
         <f>[1]num_pawns_bal!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="8" t="str">
         <f>[1]num_pawns_bal!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="8" t="str">
         <f>[1]num_pawns_bal!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="8" t="str">
         <f>[1]num_pawns_bal!E2</f>
         <v>(4)</v>
       </c>
@@ -680,19 +684,19 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]num_pawns_bal!B5</f>
-        <v>2.48</v>
+        <v>2.40</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]num_pawns_bal!C5</f>
-        <v>-3.32</v>
+        <v>-3.44</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]num_pawns_bal!D5</f>
-        <v>-0.65</v>
+        <v>-0.61</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]num_pawns_bal!E5</f>
-        <v>-0.65</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -702,19 +706,19 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]num_pawns_bal!B6</f>
-        <v>(1.36)</v>
+        <v>(1.37)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]num_pawns_bal!C6</f>
-        <v>(1.85)</v>
+        <v>(1.87)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]num_pawns_bal!D6</f>
-        <v>(2.80)</v>
+        <v>(2.76)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]num_pawns_bal!E6</f>
-        <v>(2.80)</v>
+        <v>(2.76)</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,19 +727,19 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]num_pawns_bal!B8</f>
-        <v>0.20</v>
+        <v>-0.55</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]num_pawns_bal!C8</f>
-        <v>1.82</v>
+        <v>1.50</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]num_pawns_bal!D8</f>
-        <v>1.32</v>
+        <v>1.20</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]num_pawns_bal!E8</f>
-        <v>1.32</v>
+        <v>1.20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -745,40 +749,40 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]num_pawns_bal!B9</f>
-        <v>(0.97)</v>
+        <v>(1.24)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]num_pawns_bal!C9</f>
-        <v>(0.93)</v>
+        <v>(1.00)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]num_pawns_bal!D9</f>
-        <v>(0.67)</v>
+        <v>(0.73)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]num_pawns_bal!E9</f>
-        <v>(0.67)</v>
+        <v>(0.73)</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="9" t="str">
         <f>[1]num_pawns_bal!B41</f>
-        <v>628</v>
-      </c>
-      <c r="C10" s="10" t="str">
+        <v>632</v>
+      </c>
+      <c r="C10" s="9" t="str">
         <f>[1]num_pawns_bal!C41</f>
-        <v>628</v>
-      </c>
-      <c r="D10" s="10" t="str">
+        <v>632</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f>[1]num_pawns_bal!D41</f>
-        <v>628</v>
-      </c>
-      <c r="E10" s="10" t="str">
+        <v>632</v>
+      </c>
+      <c r="E10" s="9" t="str">
         <f>[1]num_pawns_bal!E41</f>
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -788,7 +792,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]num_pawns_bal!B42</f>
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]num_pawns_bal!C42</f>
@@ -796,27 +800,27 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]num_pawns_bal!D42</f>
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]num_pawns_bal!E42</f>
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Tables/num_pawns_bal.xlsx
+++ b/Tables/num_pawns_bal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8763062-35EF-4FA1-B61A-E03A9522A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD5AE0-8A77-4E1E-BF79-6EBC5D4553BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{94F89B6B-64DA-4D6C-BCA3-70B6D91F8434}"/>
+    <workbookView xWindow="-21045" yWindow="-14550" windowWidth="21600" windowHeight="11235" xr2:uid="{94F89B6B-64DA-4D6C-BCA3-70B6D91F8434}"/>
   </bookViews>
   <sheets>
     <sheet name="num_pawns_bal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Observations</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Pawns per day</t>
-  </si>
-  <si>
-    <t>0-degree</t>
   </si>
   <si>
     <t>1-degree</t>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>$\beta_b$</t>
+  </si>
+  <si>
+    <t>Number of borrowers</t>
   </si>
 </sst>
 </file>
@@ -90,34 +90,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -149,11 +127,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,21 +150,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -222,19 +206,31 @@
           <cell r="E2" t="str">
             <v>(4)</v>
           </cell>
+          <cell r="F2" t="str">
+            <v>(5)</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>(6)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>2.40</v>
+            <v>-4.02</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-3.44</v>
+            <v>2.39</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.61</v>
+            <v>2.39</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.61</v>
+            <v>-2.51</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>2.63</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>2.63</v>
           </cell>
         </row>
         <row r="6">
@@ -242,30 +238,42 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.37)</v>
+            <v>(4.37)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(1.87)</v>
+            <v>(4.55)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(2.76)</v>
+            <v>(4.55)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(2.76)</v>
+            <v>(1.91)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(1.99)</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>(1.99)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.55</v>
+            <v>-1.69</v>
           </cell>
           <cell r="C8" t="str">
-            <v>1.50</v>
+            <v>0.070</v>
           </cell>
           <cell r="D8" t="str">
-            <v>1.20</v>
+            <v>0.070</v>
           </cell>
           <cell r="E8" t="str">
-            <v>1.20</v>
+            <v>-1.25</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>0.16</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>0.16</v>
           </cell>
         </row>
         <row r="9">
@@ -273,30 +281,42 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(1.24)</v>
+            <v>(2.07)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(1.00)</v>
+            <v>(1.69)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.73)</v>
+            <v>(1.69)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.73)</v>
+            <v>(1.39)</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>(0.85)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.85)</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>632</v>
+            <v>775</v>
           </cell>
           <cell r="C41" t="str">
-            <v>632</v>
+            <v>775</v>
           </cell>
           <cell r="D41" t="str">
-            <v>632</v>
+            <v>775</v>
           </cell>
           <cell r="E41" t="str">
-            <v>632</v>
+            <v>775</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>775</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>775</v>
           </cell>
         </row>
         <row r="42">
@@ -304,16 +324,22 @@
             <v>R-sq</v>
           </cell>
           <cell r="B42" t="str">
-            <v>0.738</v>
+            <v>0.704</v>
           </cell>
           <cell r="C42" t="str">
-            <v>0.747</v>
+            <v>0.714</v>
           </cell>
           <cell r="D42" t="str">
-            <v>0.748</v>
+            <v>0.714</v>
           </cell>
           <cell r="E42" t="str">
-            <v>0.748</v>
+            <v>0.749</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>0.765</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>0.765</v>
           </cell>
         </row>
       </sheetData>
@@ -619,29 +645,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2A96AB-AC60-4971-B5D7-309CFFCAC203}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A2:E12"/>
+      <selection activeCell="A2" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" style="1"/>
+    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -652,182 +685,266 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="str">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>[1]num_pawns_bal!A2</f>
         <v/>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="5" t="str">
         <f>[1]num_pawns_bal!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="5" t="str">
         <f>[1]num_pawns_bal!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="5" t="str">
         <f>[1]num_pawns_bal!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="str">
         <f>[1]num_pawns_bal!E2</f>
         <v>(4)</v>
       </c>
+      <c r="G4" s="5" t="str">
+        <f>[1]num_pawns_bal!F2</f>
+        <v>(5)</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>[1]num_pawns_bal!G2</f>
+        <v>(6)</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]num_pawns_bal!B5</f>
-        <v>2.40</v>
+        <v>-4.02</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]num_pawns_bal!C5</f>
-        <v>-3.44</v>
+        <v>2.39</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]num_pawns_bal!D5</f>
-        <v>-0.61</v>
-      </c>
-      <c r="E5" s="1" t="str">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f>[1]num_pawns_bal!E5</f>
-        <v>-0.61</v>
-      </c>
+        <v>-2.51</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>[1]num_pawns_bal!F5</f>
+        <v>2.63</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>[1]num_pawns_bal!G5</f>
+        <v>2.63</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]num_pawns_bal!A6</f>
         <v/>
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]num_pawns_bal!B6</f>
-        <v>(1.37)</v>
+        <v>(4.37)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]num_pawns_bal!C6</f>
-        <v>(1.87)</v>
+        <v>(4.55)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]num_pawns_bal!D6</f>
-        <v>(2.76)</v>
-      </c>
-      <c r="E6" s="1" t="str">
+        <v>(4.55)</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f>[1]num_pawns_bal!E6</f>
-        <v>(2.76)</v>
-      </c>
+        <v>(1.91)</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>[1]num_pawns_bal!F6</f>
+        <v>(1.99)</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>[1]num_pawns_bal!G6</f>
+        <v>(1.99)</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]num_pawns_bal!B8</f>
-        <v>-0.55</v>
+        <v>-1.69</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]num_pawns_bal!C8</f>
-        <v>1.50</v>
+        <v>0.070</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]num_pawns_bal!D8</f>
-        <v>1.20</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>0.070</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f>[1]num_pawns_bal!E8</f>
-        <v>1.20</v>
-      </c>
+        <v>-1.25</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>[1]num_pawns_bal!F8</f>
+        <v>0.16</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>[1]num_pawns_bal!G8</f>
+        <v>0.16</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]num_pawns_bal!A9</f>
         <v/>
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]num_pawns_bal!B9</f>
-        <v>(1.24)</v>
+        <v>(2.07)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]num_pawns_bal!C9</f>
-        <v>(1.00)</v>
+        <v>(1.69)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]num_pawns_bal!D9</f>
-        <v>(0.73)</v>
-      </c>
-      <c r="E8" s="1" t="str">
+        <v>(1.69)</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f>[1]num_pawns_bal!E9</f>
-        <v>(0.73)</v>
-      </c>
+        <v>(1.39)</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>[1]num_pawns_bal!F9</f>
+        <v>(0.85)</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>[1]num_pawns_bal!G9</f>
+        <v>(0.85)</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="6" t="str">
         <f>[1]num_pawns_bal!B41</f>
-        <v>632</v>
-      </c>
-      <c r="C10" s="9" t="str">
+        <v>775</v>
+      </c>
+      <c r="C10" s="6" t="str">
         <f>[1]num_pawns_bal!C41</f>
-        <v>632</v>
-      </c>
-      <c r="D10" s="9" t="str">
+        <v>775</v>
+      </c>
+      <c r="D10" s="6" t="str">
         <f>[1]num_pawns_bal!D41</f>
-        <v>632</v>
-      </c>
-      <c r="E10" s="9" t="str">
+        <v>775</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="str">
         <f>[1]num_pawns_bal!E41</f>
-        <v>632</v>
+        <v>775</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>[1]num_pawns_bal!F41</f>
+        <v>775</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>[1]num_pawns_bal!G41</f>
+        <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]num_pawns_bal!A42</f>
         <v>R-sq</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]num_pawns_bal!B42</f>
-        <v>0.738</v>
+        <v>0.704</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]num_pawns_bal!C42</f>
-        <v>0.747</v>
+        <v>0.714</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]num_pawns_bal!D42</f>
-        <v>0.748</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>0.714</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <f>[1]num_pawns_bal!E42</f>
-        <v>0.748</v>
+        <v>0.749</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>[1]num_pawns_bal!F42</f>
+        <v>0.765</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>[1]num_pawns_bal!G42</f>
+        <v>0.765</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
